--- a/pwl.xlsx
+++ b/pwl.xlsx
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.000510005</v>
+        <v>0.000550005</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00051001</v>
+        <v>0.00055001</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00052001</v>
+        <v>0.00060001</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.000520015</v>
+        <v>0.000600015</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.000530015</v>
+        <v>0.000650015</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00053002</v>
+        <v>0.00065002</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00054002</v>
+        <v>0.00070002</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.000540025</v>
+        <v>0.000700025</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.000550025</v>
+        <v>0.000750025</v>
       </c>
       <c r="C13" t="n">
         <v>5</v>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.00055003</v>
+        <v>0.0007500299999999999</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00056003</v>
+        <v>0.00080003</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.000560035</v>
+        <v>0.0008000349999999999</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
@@ -615,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.000570035</v>
+        <v>0.000850035</v>
       </c>
       <c r="C17" t="n">
         <v>5</v>
@@ -626,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.00057004</v>
+        <v>0.0008500399999999999</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -637,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.00058004</v>
+        <v>0.00090004</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.000580045</v>
+        <v>0.0009000449999999999</v>
       </c>
       <c r="C20" t="n">
         <v>5</v>
@@ -659,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.000590045</v>
+        <v>0.0009500449999999999</v>
       </c>
       <c r="C21" t="n">
         <v>5</v>
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0005900499999999999</v>
+        <v>0.0009500499999999999</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00060005</v>
+        <v>0.00100005</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0006000549999999999</v>
+        <v>0.001000055</v>
       </c>
       <c r="C24" t="n">
         <v>5</v>
@@ -703,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.000610055</v>
+        <v>0.001050055</v>
       </c>
       <c r="C25" t="n">
         <v>5</v>
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0006100599999999999</v>
+        <v>0.00105006</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00062006</v>
+        <v>0.00110006</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0006200649999999999</v>
+        <v>0.001100065</v>
       </c>
       <c r="C28" t="n">
         <v>5</v>
@@ -747,7 +747,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.000630065</v>
+        <v>0.001150065</v>
       </c>
       <c r="C29" t="n">
         <v>5</v>
@@ -758,7 +758,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0006300699999999999</v>
+        <v>0.00115007</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.00064007</v>
+        <v>0.001200069999999999</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0006400749999999999</v>
+        <v>0.001200074999999999</v>
       </c>
       <c r="C32" t="n">
         <v>5</v>
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0006499759900990098</v>
+        <v>0.001247694047619047</v>
       </c>
       <c r="C33" t="n">
         <v>5</v>
@@ -802,7 +802,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0006499809900990098</v>
+        <v>0.001247699047619047</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0006598819801980197</v>
+        <v>0.001295318095238095</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0006598869801980197</v>
+        <v>0.001295323095238095</v>
       </c>
       <c r="C36" t="n">
         <v>5</v>
@@ -835,7 +835,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0006697879702970296</v>
+        <v>0.001342942142857142</v>
       </c>
       <c r="C37" t="n">
         <v>5</v>
@@ -846,7 +846,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0006697929702970296</v>
+        <v>0.001342947142857142</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0006796939603960395</v>
+        <v>0.00139056619047619</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0006796989603960395</v>
+        <v>0.00139057119047619</v>
       </c>
       <c r="C40" t="n">
         <v>5</v>
@@ -879,7 +879,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0006895999504950494</v>
+        <v>0.001438190238095238</v>
       </c>
       <c r="C41" t="n">
         <v>5</v>
@@ -890,7 +890,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0006896049504950493</v>
+        <v>0.001438195238095238</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0006995059405940592</v>
+        <v>0.001485814285714285</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0006995109405940592</v>
+        <v>0.001485819285714285</v>
       </c>
       <c r="C44" t="n">
         <v>5</v>
@@ -923,7 +923,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0007094119306930691</v>
+        <v>0.001533438333333333</v>
       </c>
       <c r="C45" t="n">
         <v>5</v>
@@ -934,7 +934,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0007094169306930691</v>
+        <v>0.001533443333333333</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.000719317920792079</v>
+        <v>0.00158106238095238</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.000719322920792079</v>
+        <v>0.00158106738095238</v>
       </c>
       <c r="C48" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0007292239108910889</v>
+        <v>0.001628686428571428</v>
       </c>
       <c r="C49" t="n">
         <v>5</v>
@@ -978,7 +978,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0007292289108910889</v>
+        <v>0.001628691428571428</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0007391299009900988</v>
+        <v>0.001676310476190476</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0007391349009900987</v>
+        <v>0.001676315476190476</v>
       </c>
       <c r="C52" t="n">
         <v>5</v>
@@ -1011,7 +1011,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0007490358910891086</v>
+        <v>0.001723934523809523</v>
       </c>
       <c r="C53" t="n">
         <v>5</v>
@@ -1022,7 +1022,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0007490408910891086</v>
+        <v>0.001723939523809523</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0007589418811881185</v>
+        <v>0.001771558571428571</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0007589468811881185</v>
+        <v>0.001771563571428571</v>
       </c>
       <c r="C56" t="n">
         <v>5</v>
@@ -1055,7 +1055,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0007688478712871284</v>
+        <v>0.001819182619047618</v>
       </c>
       <c r="C57" t="n">
         <v>5</v>
@@ -1066,7 +1066,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0007688528712871284</v>
+        <v>0.001819187619047618</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0007787538613861383</v>
+        <v>0.001866806666666666</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0007787588613861383</v>
+        <v>0.001866811666666666</v>
       </c>
       <c r="C60" t="n">
         <v>5</v>
@@ -1099,7 +1099,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0007885627829547657</v>
+        <v>0.001912266212121211</v>
       </c>
       <c r="C61" t="n">
         <v>5</v>
@@ -1110,7 +1110,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0007885677829547657</v>
+        <v>0.001912271212121211</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0007983717045233932</v>
+        <v>0.001957725757575757</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0007983767045233931</v>
+        <v>0.001957730757575757</v>
       </c>
       <c r="C64" t="n">
         <v>5</v>
@@ -1143,7 +1143,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0008081806260920206</v>
+        <v>0.002003185303030302</v>
       </c>
       <c r="C65" t="n">
         <v>5</v>
@@ -1154,7 +1154,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0008081856260920206</v>
+        <v>0.002003190303030302</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.000817989547660648</v>
+        <v>0.002048644848484848</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.000817994547660648</v>
+        <v>0.002048649848484848</v>
       </c>
       <c r="C68" t="n">
         <v>5</v>
@@ -1187,7 +1187,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0008277984692292755</v>
+        <v>0.002094104393939394</v>
       </c>
       <c r="C69" t="n">
         <v>5</v>
@@ -1198,7 +1198,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0008278034692292754</v>
+        <v>0.002094109393939394</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0008376073907979029</v>
+        <v>0.002139563939393939</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0008376123907979029</v>
+        <v>0.002139568939393939</v>
       </c>
       <c r="C72" t="n">
         <v>5</v>
@@ -1231,7 +1231,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0008474163123665304</v>
+        <v>0.002185023484848485</v>
       </c>
       <c r="C73" t="n">
         <v>5</v>
@@ -1242,7 +1242,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0008474213123665303</v>
+        <v>0.002185028484848485</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0008572252339351578</v>
+        <v>0.00223048303030303</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1264,7 +1264,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0008572302339351578</v>
+        <v>0.00223048803030303</v>
       </c>
       <c r="C76" t="n">
         <v>5</v>
@@ -1275,7 +1275,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0008670341555037852</v>
+        <v>0.002275942575757576</v>
       </c>
       <c r="C77" t="n">
         <v>5</v>
@@ -1286,7 +1286,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0008670391555037852</v>
+        <v>0.002275947575757576</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0008768430770724127</v>
+        <v>0.002321402121212121</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0008768480770724126</v>
+        <v>0.002321407121212121</v>
       </c>
       <c r="C80" t="n">
         <v>5</v>
@@ -1319,7 +1319,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0008866519986410401</v>
+        <v>0.002366861666666667</v>
       </c>
       <c r="C81" t="n">
         <v>5</v>
@@ -1330,7 +1330,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0008866569986410401</v>
+        <v>0.002366866666666667</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0008964609202096675</v>
+        <v>0.002412321212121212</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0008964659202096675</v>
+        <v>0.002412326212121212</v>
       </c>
       <c r="C84" t="n">
         <v>5</v>
@@ -1363,7 +1363,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.000906269841778295</v>
+        <v>0.002457780757575758</v>
       </c>
       <c r="C85" t="n">
         <v>5</v>
@@ -1374,7 +1374,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.000906274841778295</v>
+        <v>0.002457785757575758</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0009160787633469224</v>
+        <v>0.002503240303030303</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0009160837633469224</v>
+        <v>0.002503245303030303</v>
       </c>
       <c r="C88" t="n">
         <v>5</v>
@@ -1407,7 +1407,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.000925792501211</v>
+        <v>0.002546723563899869</v>
       </c>
       <c r="C89" t="n">
         <v>5</v>
@@ -1418,7 +1418,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.000925797501211</v>
+        <v>0.002546728563899868</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0009355062390750777</v>
+        <v>0.002590206824769434</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0009355112390750776</v>
+        <v>0.002590211824769434</v>
       </c>
       <c r="C92" t="n">
         <v>5</v>
@@ -1451,7 +1451,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0009452199769391553</v>
+        <v>0.002633690085638999</v>
       </c>
       <c r="C93" t="n">
         <v>5</v>
@@ -1462,7 +1462,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0009452249769391553</v>
+        <v>0.002633695085638999</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0009549337148032329</v>
+        <v>0.002677173346508564</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0009549387148032329</v>
+        <v>0.002677178346508564</v>
       </c>
       <c r="C96" t="n">
         <v>5</v>
@@ -1495,7 +1495,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0009646474526673105</v>
+        <v>0.002720656607378129</v>
       </c>
       <c r="C97" t="n">
         <v>5</v>
@@ -1506,7 +1506,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0009646524526673105</v>
+        <v>0.002720661607378129</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0009743611905313882</v>
+        <v>0.002764139868247694</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0009743661905313881</v>
+        <v>0.002764144868247694</v>
       </c>
       <c r="C100" t="n">
         <v>5</v>
@@ -1539,7 +1539,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0009840749283954659</v>
+        <v>0.002807623129117259</v>
       </c>
       <c r="C101" t="n">
         <v>5</v>
@@ -1550,7 +1550,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0009840799283954659</v>
+        <v>0.002807628129117259</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -1561,7 +1561,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0009937886662595436</v>
+        <v>0.002851106389986824</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0009937936662595436</v>
+        <v>0.002851111389986824</v>
       </c>
       <c r="C104" t="n">
         <v>5</v>
@@ -1583,7 +1583,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.001003502404123621</v>
+        <v>0.002894589650856389</v>
       </c>
       <c r="C105" t="n">
         <v>5</v>
@@ -1594,7 +1594,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.001003507404123621</v>
+        <v>0.002894594650856389</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.001013216141987699</v>
+        <v>0.002938072911725954</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.001013221141987699</v>
+        <v>0.002938077911725954</v>
       </c>
       <c r="C108" t="n">
         <v>5</v>
@@ -1627,7 +1627,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.001022929879851777</v>
+        <v>0.002981556172595519</v>
       </c>
       <c r="C109" t="n">
         <v>5</v>
@@ -1638,7 +1638,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.001022934879851777</v>
+        <v>0.002981561172595519</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.001032643617715855</v>
+        <v>0.003025039433465084</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.001032648617715855</v>
+        <v>0.003025044433465084</v>
       </c>
       <c r="C112" t="n">
         <v>5</v>
@@ -1671,7 +1671,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001042357355579932</v>
+        <v>0.003068522694334649</v>
       </c>
       <c r="C113" t="n">
         <v>5</v>
@@ -1682,7 +1682,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.001042362355579932</v>
+        <v>0.003068527694334649</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.00105207109344401</v>
+        <v>0.003112005955204214</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.00105207609344401</v>
+        <v>0.003112010955204214</v>
       </c>
       <c r="C116" t="n">
         <v>5</v>
@@ -1715,7 +1715,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.001061691478059395</v>
+        <v>0.003153677621870881</v>
       </c>
       <c r="C117" t="n">
         <v>5</v>
@@ -1726,7 +1726,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.001061696478059395</v>
+        <v>0.003153682621870881</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.001071311862674779</v>
+        <v>0.003195349288537548</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.001071316862674779</v>
+        <v>0.003195354288537548</v>
       </c>
       <c r="C120" t="n">
         <v>5</v>
@@ -1759,7 +1759,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.001080932247290164</v>
+        <v>0.003237020955204215</v>
       </c>
       <c r="C121" t="n">
         <v>5</v>
@@ -1770,7 +1770,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.001080937247290164</v>
+        <v>0.003237025955204215</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.001090552631905548</v>
+        <v>0.003278692621870882</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.001090557631905548</v>
+        <v>0.003278697621870882</v>
       </c>
       <c r="C124" t="n">
         <v>5</v>
@@ -1803,7 +1803,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.001100173016520933</v>
+        <v>0.003320364288537549</v>
       </c>
       <c r="C125" t="n">
         <v>5</v>
@@ -1814,7 +1814,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.001100178016520933</v>
+        <v>0.003320369288537549</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.001109793401136317</v>
+        <v>0.003362035955204215</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.001109798401136317</v>
+        <v>0.003362040955204215</v>
       </c>
       <c r="C128" t="n">
         <v>5</v>
@@ -1847,7 +1847,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.001119413785751702</v>
+        <v>0.003403707621870882</v>
       </c>
       <c r="C129" t="n">
         <v>5</v>
@@ -1858,7 +1858,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.001119418785751702</v>
+        <v>0.003403712621870882</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.001129034170367087</v>
+        <v>0.003445379288537549</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -1880,7 +1880,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.001129039170367087</v>
+        <v>0.003445384288537549</v>
       </c>
       <c r="C132" t="n">
         <v>5</v>
@@ -1891,7 +1891,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.001138654554982471</v>
+        <v>0.003487050955204216</v>
       </c>
       <c r="C133" t="n">
         <v>5</v>
@@ -1902,7 +1902,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.001138659554982471</v>
+        <v>0.003487055955204216</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.001148274939597856</v>
+        <v>0.003528722621870883</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.001148279939597856</v>
+        <v>0.003528727621870883</v>
       </c>
       <c r="C136" t="n">
         <v>5</v>
@@ -1935,7 +1935,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.00115789532421324</v>
+        <v>0.003570394288537549</v>
       </c>
       <c r="C137" t="n">
         <v>5</v>
@@ -1946,7 +1946,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.00115790032421324</v>
+        <v>0.003570399288537549</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.001167515708828625</v>
+        <v>0.003612065955204216</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.001167520708828625</v>
+        <v>0.003612070955204216</v>
       </c>
       <c r="C140" t="n">
         <v>5</v>
@@ -1979,7 +1979,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.00117713609344401</v>
+        <v>0.003653737621870883</v>
       </c>
       <c r="C141" t="n">
         <v>5</v>
@@ -1990,7 +1990,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.00117714109344401</v>
+        <v>0.003653742621870883</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.001186756478059394</v>
+        <v>0.00369540928853755</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.001186761478059394</v>
+        <v>0.00369541428853755</v>
       </c>
       <c r="C144" t="n">
         <v>5</v>
@@ -2023,7 +2023,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.001196285287583204</v>
+        <v>0.00373541428853755</v>
       </c>
       <c r="C145" t="n">
         <v>5</v>
@@ -2034,7 +2034,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.001196290287583204</v>
+        <v>0.00373541928853755</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.001205814097107013</v>
+        <v>0.00377541928853755</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.001205819097107013</v>
+        <v>0.00377542428853755</v>
       </c>
       <c r="C148" t="n">
         <v>5</v>
@@ -2067,7 +2067,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.001215342906630823</v>
+        <v>0.00381542428853755</v>
       </c>
       <c r="C149" t="n">
         <v>5</v>
@@ -2078,7 +2078,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.001215347906630823</v>
+        <v>0.00381542928853755</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.001224871716154632</v>
+        <v>0.00385542928853755</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2100,7 +2100,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.001224876716154632</v>
+        <v>0.00385543428853755</v>
       </c>
       <c r="C152" t="n">
         <v>5</v>
@@ -2111,7 +2111,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.001234400525678442</v>
+        <v>0.00389543428853755</v>
       </c>
       <c r="C153" t="n">
         <v>5</v>
@@ -2122,7 +2122,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.001234405525678442</v>
+        <v>0.00389543928853755</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.001243929335202251</v>
+        <v>0.00393543928853755</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.001243934335202251</v>
+        <v>0.00393544428853755</v>
       </c>
       <c r="C156" t="n">
         <v>5</v>
@@ -2155,7 +2155,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.001253458144726061</v>
+        <v>0.00397544428853755</v>
       </c>
       <c r="C157" t="n">
         <v>5</v>
@@ -2166,7 +2166,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.001253463144726061</v>
+        <v>0.00397544928853755</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.00126298695424987</v>
+        <v>0.004015449288537551</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.00126299195424987</v>
+        <v>0.004015454288537551</v>
       </c>
       <c r="C160" t="n">
         <v>5</v>
@@ -2199,7 +2199,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.00127251576377368</v>
+        <v>0.004055454288537551</v>
       </c>
       <c r="C161" t="n">
         <v>5</v>
@@ -2210,7 +2210,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.00127252076377368</v>
+        <v>0.004055459288537551</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.001282044573297489</v>
+        <v>0.004095459288537551</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -2232,7 +2232,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.001282049573297489</v>
+        <v>0.004095464288537551</v>
       </c>
       <c r="C164" t="n">
         <v>5</v>
@@ -2243,7 +2243,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.001291573382821299</v>
+        <v>0.004135464288537551</v>
       </c>
       <c r="C165" t="n">
         <v>5</v>
@@ -2254,7 +2254,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.001291578382821299</v>
+        <v>0.004135469288537551</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.001301102192345108</v>
+        <v>0.004175469288537551</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -2276,7 +2276,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.001301107192345108</v>
+        <v>0.004175474288537551</v>
       </c>
       <c r="C168" t="n">
         <v>5</v>
@@ -2287,7 +2287,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.001310631001868918</v>
+        <v>0.004215474288537551</v>
       </c>
       <c r="C169" t="n">
         <v>5</v>
@@ -2298,7 +2298,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.001310636001868918</v>
+        <v>0.004215479288537551</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -2309,7 +2309,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.001320159811392727</v>
+        <v>0.004255479288537551</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.001320164811392727</v>
+        <v>0.004255484288537551</v>
       </c>
       <c r="C172" t="n">
         <v>5</v>
@@ -2331,7 +2331,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.001329598773656878</v>
+        <v>0.004293945826999089</v>
       </c>
       <c r="C173" t="n">
         <v>5</v>
@@ -2342,7 +2342,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.001329603773656878</v>
+        <v>0.004293950826999089</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.001339037735921029</v>
+        <v>0.004332412365460628</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -2364,7 +2364,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.001339042735921029</v>
+        <v>0.004332417365460628</v>
       </c>
       <c r="C176" t="n">
         <v>5</v>
@@ -2375,7 +2375,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.00134847669818518</v>
+        <v>0.004370878903922166</v>
       </c>
       <c r="C177" t="n">
         <v>5</v>
@@ -2386,7 +2386,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.001348481698185179</v>
+        <v>0.004370883903922166</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.00135791566044933</v>
+        <v>0.004409345442383705</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.00135792066044933</v>
+        <v>0.004409350442383705</v>
       </c>
       <c r="C180" t="n">
         <v>5</v>
@@ -2419,7 +2419,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.001367354622713481</v>
+        <v>0.004447811980845243</v>
       </c>
       <c r="C181" t="n">
         <v>5</v>
@@ -2430,7 +2430,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.001367359622713481</v>
+        <v>0.004447816980845243</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.001376793584977632</v>
+        <v>0.004486278519306781</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001376798584977632</v>
+        <v>0.004486283519306781</v>
       </c>
       <c r="C184" t="n">
         <v>5</v>
@@ -2463,7 +2463,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001386232547241783</v>
+        <v>0.00452474505776832</v>
       </c>
       <c r="C185" t="n">
         <v>5</v>
@@ -2474,7 +2474,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.001386237547241783</v>
+        <v>0.00452475005776832</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.001395671509505934</v>
+        <v>0.004563211596229858</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.001395676509505934</v>
+        <v>0.004563216596229858</v>
       </c>
       <c r="C188" t="n">
         <v>5</v>
@@ -2507,7 +2507,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001405110471770084</v>
+        <v>0.004601678134691397</v>
       </c>
       <c r="C189" t="n">
         <v>5</v>
@@ -2518,7 +2518,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001405115471770084</v>
+        <v>0.004601683134691397</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.001414549434034235</v>
+        <v>0.004640144673152935</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.001414554434034235</v>
+        <v>0.004640149673152935</v>
       </c>
       <c r="C192" t="n">
         <v>5</v>
@@ -2551,7 +2551,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.001423988396298386</v>
+        <v>0.004678611211614473</v>
       </c>
       <c r="C193" t="n">
         <v>5</v>
@@ -2562,7 +2562,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.001423993396298386</v>
+        <v>0.004678616211614473</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.001433427358562537</v>
+        <v>0.004717077750076012</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.001433432358562537</v>
+        <v>0.004717082750076012</v>
       </c>
       <c r="C196" t="n">
         <v>5</v>
@@ -2595,7 +2595,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.001442866320826688</v>
+        <v>0.00475554428853755</v>
       </c>
       <c r="C197" t="n">
         <v>5</v>
@@ -2606,7 +2606,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.001442871320826688</v>
+        <v>0.00475554928853755</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.001452305283090838</v>
+        <v>0.004794010826999089</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.001452310283090838</v>
+        <v>0.004794015826999089</v>
       </c>
       <c r="C200" t="n">
         <v>5</v>
@@ -2639,7 +2639,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.001461656077483362</v>
+        <v>0.004831052864036125</v>
       </c>
       <c r="C201" t="n">
         <v>5</v>
@@ -2650,7 +2650,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.001461661077483362</v>
+        <v>0.004831057864036125</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -2661,7 +2661,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.001471006871875885</v>
+        <v>0.004868094901073162</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -2672,7 +2672,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.001471011871875885</v>
+        <v>0.004868099901073162</v>
       </c>
       <c r="C204" t="n">
         <v>5</v>
@@ -2683,7 +2683,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.001480357666268408</v>
+        <v>0.004905136938110199</v>
       </c>
       <c r="C205" t="n">
         <v>5</v>
@@ -2694,7 +2694,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.001480362666268408</v>
+        <v>0.004905141938110199</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.001489708460660932</v>
+        <v>0.004942178975147236</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.001489713460660932</v>
+        <v>0.004942183975147236</v>
       </c>
       <c r="C208" t="n">
         <v>5</v>
@@ -2727,7 +2727,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.001499059255053455</v>
+        <v>0.004979221012184273</v>
       </c>
       <c r="C209" t="n">
         <v>5</v>
@@ -2738,7 +2738,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.001499064255053455</v>
+        <v>0.004979226012184272</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>0.001508410049445978</v>
+        <v>0.005016263049221309</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.001508415049445978</v>
+        <v>0.005016268049221309</v>
       </c>
       <c r="C212" t="n">
         <v>5</v>
@@ -2771,7 +2771,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.001517760843838502</v>
+        <v>0.005053305086258346</v>
       </c>
       <c r="C213" t="n">
         <v>5</v>
@@ -2782,7 +2782,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.001517765843838502</v>
+        <v>0.005053310086258346</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.001527111638231025</v>
+        <v>0.005090347123295383</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0.001527116638231025</v>
+        <v>0.005090352123295383</v>
       </c>
       <c r="C216" t="n">
         <v>5</v>
@@ -2815,7 +2815,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.001536462432623548</v>
+        <v>0.00512738916033242</v>
       </c>
       <c r="C217" t="n">
         <v>5</v>
@@ -2826,7 +2826,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.001536467432623548</v>
+        <v>0.00512739416033242</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.001545813227016072</v>
+        <v>0.005164431197369456</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.001545818227016072</v>
+        <v>0.005164436197369456</v>
       </c>
       <c r="C220" t="n">
         <v>5</v>
@@ -2859,7 +2859,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.001555164021408595</v>
+        <v>0.005201473234406493</v>
       </c>
       <c r="C221" t="n">
         <v>5</v>
@@ -2870,7 +2870,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.001555169021408595</v>
+        <v>0.005201478234406493</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.001564514815801118</v>
+        <v>0.00523851527144353</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.001564519815801118</v>
+        <v>0.00523852027144353</v>
       </c>
       <c r="C224" t="n">
         <v>5</v>
@@ -2903,7 +2903,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.001573865610193642</v>
+        <v>0.005275557308480567</v>
       </c>
       <c r="C225" t="n">
         <v>5</v>
@@ -2914,7 +2914,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.001573870610193641</v>
+        <v>0.005275562308480567</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.001583216404586165</v>
+        <v>0.005312599345517604</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.001583221404586165</v>
+        <v>0.005312604345517604</v>
       </c>
       <c r="C228" t="n">
         <v>5</v>
@@ -2947,7 +2947,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.001592480663845424</v>
+        <v>0.005348318631231889</v>
       </c>
       <c r="C229" t="n">
         <v>5</v>
@@ -2958,7 +2958,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.001592485663845424</v>
+        <v>0.005348323631231889</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -2969,7 +2969,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>0.001601744923104683</v>
+        <v>0.005384037916946175</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.001601749923104683</v>
+        <v>0.005384042916946175</v>
       </c>
       <c r="C232" t="n">
         <v>5</v>
@@ -2991,7 +2991,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.001611009182363942</v>
+        <v>0.00541975720266046</v>
       </c>
       <c r="C233" t="n">
         <v>5</v>
@@ -3002,7 +3002,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.001611014182363942</v>
+        <v>0.00541976220266046</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>0.001620273441623202</v>
+        <v>0.005455476488374746</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>0.001620278441623202</v>
+        <v>0.005455481488374746</v>
       </c>
       <c r="C236" t="n">
         <v>5</v>
@@ -3035,7 +3035,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>0.001629537700882461</v>
+        <v>0.005491195774089032</v>
       </c>
       <c r="C237" t="n">
         <v>5</v>
@@ -3046,7 +3046,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>0.001629542700882461</v>
+        <v>0.005491200774089031</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0.00163880196014172</v>
+        <v>0.005526915059803317</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>0.00163880696014172</v>
+        <v>0.005526920059803317</v>
       </c>
       <c r="C240" t="n">
         <v>5</v>
@@ -3079,7 +3079,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>0.001648066219400979</v>
+        <v>0.005562634345517603</v>
       </c>
       <c r="C241" t="n">
         <v>5</v>
@@ -3090,7 +3090,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>0.001648071219400979</v>
+        <v>0.005562639345517603</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0.001657330478660238</v>
+        <v>0.005598353631231888</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0.001657335478660238</v>
+        <v>0.005598358631231888</v>
       </c>
       <c r="C244" t="n">
         <v>5</v>
@@ -3123,7 +3123,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0.001666594737919497</v>
+        <v>0.005634072916946174</v>
       </c>
       <c r="C245" t="n">
         <v>5</v>
@@ -3134,7 +3134,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.001666599737919497</v>
+        <v>0.005634077916946174</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -3145,7 +3145,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>0.001675858997178757</v>
+        <v>0.005669792202660459</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0.001675863997178757</v>
+        <v>0.005669797202660459</v>
       </c>
       <c r="C248" t="n">
         <v>5</v>
@@ -3167,7 +3167,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>0.001685123256438016</v>
+        <v>0.005705511488374745</v>
       </c>
       <c r="C249" t="n">
         <v>5</v>
@@ -3178,7 +3178,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>0.001685128256438016</v>
+        <v>0.005705516488374745</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>0.001694387515697275</v>
+        <v>0.005741230774089031</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0.001694392515697275</v>
+        <v>0.005741235774089031</v>
       </c>
       <c r="C252" t="n">
         <v>5</v>
@@ -3211,7 +3211,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>0.001703651774956534</v>
+        <v>0.005776950059803316</v>
       </c>
       <c r="C253" t="n">
         <v>5</v>
@@ -3222,7 +3222,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.001703656774956534</v>
+        <v>0.005776955059803316</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>0.001712916034215793</v>
+        <v>0.005812669345517602</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0.001712921034215793</v>
+        <v>0.005812674345517602</v>
       </c>
       <c r="C256" t="n">
         <v>5</v>
@@ -3255,7 +3255,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0.001722095346142399</v>
+        <v>0.005847157104138291</v>
       </c>
       <c r="C257" t="n">
         <v>5</v>
@@ -3266,7 +3266,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>0.001722100346142399</v>
+        <v>0.005847162104138291</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>0.001731274658069004</v>
+        <v>0.005881644862758981</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>0.001731279658069004</v>
+        <v>0.005881649862758981</v>
       </c>
       <c r="C260" t="n">
         <v>5</v>
@@ -3299,7 +3299,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>0.00174045396999561</v>
+        <v>0.00591613262137967</v>
       </c>
       <c r="C261" t="n">
         <v>5</v>
@@ -3310,7 +3310,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>0.00174045896999561</v>
+        <v>0.00591613762137967</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -3321,7 +3321,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>0.001749633281922215</v>
+        <v>0.00595062038000036</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>0.001749638281922215</v>
+        <v>0.005950625380000359</v>
       </c>
       <c r="C264" t="n">
         <v>5</v>
@@ -3343,7 +3343,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>0.00175881259384882</v>
+        <v>0.005985108138621049</v>
       </c>
       <c r="C265" t="n">
         <v>5</v>
@@ -3354,7 +3354,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>0.00175881759384882</v>
+        <v>0.005985113138621049</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>0.001767991905775426</v>
+        <v>0.006019595897241738</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -3376,7 +3376,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>0.001767996905775426</v>
+        <v>0.006019600897241738</v>
       </c>
       <c r="C268" t="n">
         <v>5</v>
@@ -3387,7 +3387,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>0.001777171217702031</v>
+        <v>0.006054083655862428</v>
       </c>
       <c r="C269" t="n">
         <v>5</v>
@@ -3398,7 +3398,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>0.001777176217702031</v>
+        <v>0.006054088655862428</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -3409,7 +3409,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>0.001786350529628637</v>
+        <v>0.006088571414483117</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>0.001786355529628637</v>
+        <v>0.006088576414483117</v>
       </c>
       <c r="C272" t="n">
         <v>5</v>
@@ -3431,7 +3431,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>0.001795529841555242</v>
+        <v>0.006123059173103807</v>
       </c>
       <c r="C273" t="n">
         <v>5</v>
@@ -3442,7 +3442,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>0.001795534841555242</v>
+        <v>0.006123064173103807</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -3453,7 +3453,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>0.001804709153481848</v>
+        <v>0.006157546931724496</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>0.001804714153481847</v>
+        <v>0.006157551931724496</v>
       </c>
       <c r="C276" t="n">
         <v>5</v>
@@ -3475,7 +3475,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>0.001813888465408453</v>
+        <v>0.006192034690345185</v>
       </c>
       <c r="C277" t="n">
         <v>5</v>
@@ -3486,7 +3486,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>0.001813893465408453</v>
+        <v>0.006192039690345185</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -3497,7 +3497,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>0.001823067777335058</v>
+        <v>0.006226522448965875</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>0.001823072777335058</v>
+        <v>0.006226527448965875</v>
       </c>
       <c r="C280" t="n">
         <v>5</v>
@@ -3519,7 +3519,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>0.001832247089261664</v>
+        <v>0.006261010207586564</v>
       </c>
       <c r="C281" t="n">
         <v>5</v>
@@ -3530,7 +3530,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>0.001832252089261664</v>
+        <v>0.006261015207586564</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -3541,7 +3541,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>0.001841426401188269</v>
+        <v>0.006295497966207254</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -3552,7 +3552,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>0.001841431401188269</v>
+        <v>0.006295502966207254</v>
       </c>
       <c r="C284" t="n">
         <v>5</v>
@@ -3563,7 +3563,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>0.001850522310279178</v>
+        <v>0.006328836299540587</v>
       </c>
       <c r="C285" t="n">
         <v>5</v>
@@ -3574,7 +3574,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>0.001850527310279178</v>
+        <v>0.006328841299540587</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>0.001859618219370087</v>
+        <v>0.00636217463287392</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>0.001859623219370087</v>
+        <v>0.00636217963287392</v>
       </c>
       <c r="C288" t="n">
         <v>5</v>
@@ -3607,7 +3607,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>0.001868714128460996</v>
+        <v>0.006395512966207253</v>
       </c>
       <c r="C289" t="n">
         <v>5</v>
@@ -3618,7 +3618,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>0.001868719128460996</v>
+        <v>0.006395517966207253</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>0.001877810037551906</v>
+        <v>0.006428851299540586</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -3640,7 +3640,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>0.001877815037551906</v>
+        <v>0.006428856299540586</v>
       </c>
       <c r="C292" t="n">
         <v>5</v>
@@ -3651,7 +3651,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>0.001886905946642815</v>
+        <v>0.006462189632873919</v>
       </c>
       <c r="C293" t="n">
         <v>5</v>
@@ -3662,7 +3662,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>0.001886910946642815</v>
+        <v>0.006462194632873919</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>0.001896001855733724</v>
+        <v>0.006495527966207252</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>0.001896006855733724</v>
+        <v>0.006495532966207252</v>
       </c>
       <c r="C296" t="n">
         <v>5</v>
@@ -3695,7 +3695,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>0.001905097764824633</v>
+        <v>0.006528866299540585</v>
       </c>
       <c r="C297" t="n">
         <v>5</v>
@@ -3706,7 +3706,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>0.001905102764824633</v>
+        <v>0.006528871299540585</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>0.001914193673915542</v>
+        <v>0.006562204632873919</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -3728,7 +3728,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>0.001914198673915542</v>
+        <v>0.006562209632873918</v>
       </c>
       <c r="C300" t="n">
         <v>5</v>
@@ -3739,7 +3739,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>0.001923289583006451</v>
+        <v>0.006595542966207252</v>
       </c>
       <c r="C301" t="n">
         <v>5</v>
@@ -3750,7 +3750,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>0.001923294583006451</v>
+        <v>0.006595547966207252</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>0.00193238549209736</v>
+        <v>0.006628881299540585</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -3772,7 +3772,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>0.00193239049209736</v>
+        <v>0.006628886299540585</v>
       </c>
       <c r="C304" t="n">
         <v>5</v>
@@ -3783,7 +3783,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>0.001941481401188269</v>
+        <v>0.006662219632873918</v>
       </c>
       <c r="C305" t="n">
         <v>5</v>
@@ -3794,7 +3794,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>0.001941486401188269</v>
+        <v>0.006662224632873918</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>0.001950577310279178</v>
+        <v>0.006695557966207251</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>0.001950582310279178</v>
+        <v>0.006695562966207251</v>
       </c>
       <c r="C308" t="n">
         <v>5</v>
@@ -3827,7 +3827,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>0.001959673219370087</v>
+        <v>0.006728896299540584</v>
       </c>
       <c r="C309" t="n">
         <v>5</v>
@@ -3838,7 +3838,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>0.001959678219370087</v>
+        <v>0.006728901299540584</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>0.001968769128460996</v>
+        <v>0.006762234632873917</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>0.001968774128460996</v>
+        <v>0.006762239632873917</v>
       </c>
       <c r="C312" t="n">
         <v>5</v>
@@ -3871,7 +3871,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>0.001977783137470005</v>
+        <v>0.006794497697390046</v>
       </c>
       <c r="C313" t="n">
         <v>5</v>
@@ -3882,7 +3882,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>0.001977788137470005</v>
+        <v>0.006794502697390046</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>0.001986797146479014</v>
+        <v>0.006826760761906175</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>0.001986802146479014</v>
+        <v>0.006826765761906175</v>
       </c>
       <c r="C316" t="n">
         <v>5</v>
@@ -3915,7 +3915,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>0.001995811155488024</v>
+        <v>0.006859023826422304</v>
       </c>
       <c r="C317" t="n">
         <v>5</v>
@@ -3926,7 +3926,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>0.001995816155488024</v>
+        <v>0.006859028826422304</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>0.002004825164497033</v>
+        <v>0.006891286890938432</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>0.002004830164497033</v>
+        <v>0.006891291890938432</v>
       </c>
       <c r="C320" t="n">
         <v>5</v>
@@ -3959,7 +3959,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>0.002013839173506042</v>
+        <v>0.006923549955454561</v>
       </c>
       <c r="C321" t="n">
         <v>5</v>
@@ -3970,7 +3970,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>0.002013844173506042</v>
+        <v>0.006923554955454561</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -3981,7 +3981,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>0.002022853182515051</v>
+        <v>0.00695581301997069</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>0.002022858182515051</v>
+        <v>0.00695581801997069</v>
       </c>
       <c r="C324" t="n">
         <v>5</v>
@@ -4003,7 +4003,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>0.00203186719152406</v>
+        <v>0.006988076084486819</v>
       </c>
       <c r="C325" t="n">
         <v>5</v>
@@ -4014,7 +4014,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>0.00203187219152406</v>
+        <v>0.006988081084486819</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>0.002040881200533069</v>
+        <v>0.007020339149002948</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>0.002040886200533069</v>
+        <v>0.007020344149002948</v>
       </c>
       <c r="C328" t="n">
         <v>5</v>
@@ -4047,7 +4047,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>0.002049895209542078</v>
+        <v>0.007052602213519076</v>
       </c>
       <c r="C329" t="n">
         <v>5</v>
@@ -4058,7 +4058,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>0.002049900209542078</v>
+        <v>0.007052607213519076</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>0.002058909218551088</v>
+        <v>0.007084865278035205</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -4080,7 +4080,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>0.002058914218551088</v>
+        <v>0.007084870278035205</v>
       </c>
       <c r="C332" t="n">
         <v>5</v>
@@ -4091,7 +4091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>0.002067923227560097</v>
+        <v>0.007117128342551334</v>
       </c>
       <c r="C333" t="n">
         <v>5</v>
@@ -4102,7 +4102,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>0.002067928227560097</v>
+        <v>0.007117133342551334</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -4113,7 +4113,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>0.002076937236569106</v>
+        <v>0.007149391407067463</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>0.002076942236569106</v>
+        <v>0.007149396407067463</v>
       </c>
       <c r="C336" t="n">
         <v>5</v>
@@ -4135,7 +4135,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>0.002085951245578115</v>
+        <v>0.007181654471583592</v>
       </c>
       <c r="C337" t="n">
         <v>5</v>
@@ -4146,7 +4146,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>0.002085956245578115</v>
+        <v>0.007181659471583592</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>0.002094965254587124</v>
+        <v>0.00721391753609972</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>0.002094970254587124</v>
+        <v>0.00721392253609972</v>
       </c>
       <c r="C340" t="n">
         <v>5</v>
@@ -4179,7 +4179,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>0.002103898826015696</v>
+        <v>0.00724517253609972</v>
       </c>
       <c r="C341" t="n">
         <v>5</v>
@@ -4190,7 +4190,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>0.002103903826015696</v>
+        <v>0.00724517753609972</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>0.002112832397444267</v>
+        <v>0.00727642753609972</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -4212,7 +4212,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>0.002112837397444267</v>
+        <v>0.00727643253609972</v>
       </c>
       <c r="C344" t="n">
         <v>5</v>
@@ -4223,7 +4223,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>0.002121765968872839</v>
+        <v>0.00730768253609972</v>
       </c>
       <c r="C345" t="n">
         <v>5</v>
@@ -4234,7 +4234,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>0.002121770968872839</v>
+        <v>0.00730768753609972</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -4245,7 +4245,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>0.002130699540301411</v>
+        <v>0.00733893753609972</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>0.002130704540301411</v>
+        <v>0.00733894253609972</v>
       </c>
       <c r="C348" t="n">
         <v>5</v>
@@ -4267,7 +4267,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>0.002139633111729982</v>
+        <v>0.00737019253609972</v>
       </c>
       <c r="C349" t="n">
         <v>5</v>
@@ -4278,7 +4278,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>0.002139638111729982</v>
+        <v>0.00737019753609972</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>0.002148566683158554</v>
+        <v>0.00740144753609972</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -4300,7 +4300,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>0.002148571683158554</v>
+        <v>0.00740145253609972</v>
       </c>
       <c r="C352" t="n">
         <v>5</v>
@@ -4311,7 +4311,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>0.002157500254587125</v>
+        <v>0.00743270253609972</v>
       </c>
       <c r="C353" t="n">
         <v>5</v>
@@ -4322,7 +4322,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>0.002157505254587125</v>
+        <v>0.00743270753609972</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -4333,7 +4333,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>0.002166433826015697</v>
+        <v>0.00746395753609972</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -4344,7 +4344,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>0.002166438826015697</v>
+        <v>0.00746396253609972</v>
       </c>
       <c r="C356" t="n">
         <v>5</v>
@@ -4355,7 +4355,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>0.002175367397444269</v>
+        <v>0.00749521253609972</v>
       </c>
       <c r="C357" t="n">
         <v>5</v>
@@ -4366,7 +4366,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>0.002175372397444269</v>
+        <v>0.00749521753609972</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>0.00218430096887284</v>
+        <v>0.00752646753609972</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -4388,7 +4388,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>0.00218430596887284</v>
+        <v>0.00752647253609972</v>
       </c>
       <c r="C360" t="n">
         <v>5</v>
@@ -4399,7 +4399,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>0.002193234540301412</v>
+        <v>0.00755772253609972</v>
       </c>
       <c r="C361" t="n">
         <v>5</v>
@@ -4410,7 +4410,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>0.002193239540301412</v>
+        <v>0.00755772753609972</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -4421,7 +4421,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>0.002202168111729983</v>
+        <v>0.00758897753609972</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>0.002202173111729983</v>
+        <v>0.00758898253609972</v>
       </c>
       <c r="C364" t="n">
         <v>5</v>
@@ -4443,7 +4443,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>0.002211101683158555</v>
+        <v>0.00762023253609972</v>
       </c>
       <c r="C365" t="n">
         <v>5</v>
@@ -4454,7 +4454,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>0.002211106683158555</v>
+        <v>0.00762023753609972</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -4465,7 +4465,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>0.002220035254587127</v>
+        <v>0.00765148753609972</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -4476,7 +4476,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>0.002220040254587127</v>
+        <v>0.00765149253609972</v>
       </c>
       <c r="C368" t="n">
         <v>5</v>
@@ -4487,7 +4487,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>0.00222888981210925</v>
+        <v>0.007681795566402751</v>
       </c>
       <c r="C369" t="n">
         <v>5</v>
@@ -4498,7 +4498,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>0.00222889481210925</v>
+        <v>0.007681800566402751</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -4509,7 +4509,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>0.002237744369631374</v>
+        <v>0.007712103596705782</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>0.002237749369631374</v>
+        <v>0.007712108596705782</v>
       </c>
       <c r="C372" t="n">
         <v>5</v>
@@ -4531,7 +4531,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>0.002246598927153498</v>
+        <v>0.007742411627008812</v>
       </c>
       <c r="C373" t="n">
         <v>5</v>
@@ -4542,7 +4542,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>0.002246603927153498</v>
+        <v>0.007742416627008812</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>0.002255453484675622</v>
+        <v>0.007772719657311843</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -4564,7 +4564,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>0.002255458484675622</v>
+        <v>0.007772724657311843</v>
       </c>
       <c r="C376" t="n">
         <v>5</v>
@@ -4575,7 +4575,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>0.002264308042197746</v>
+        <v>0.007803027687614874</v>
       </c>
       <c r="C377" t="n">
         <v>5</v>
@@ -4586,7 +4586,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>0.002264313042197746</v>
+        <v>0.007803032687614874</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>0.00227316259971987</v>
+        <v>0.007833335717917904</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -4608,7 +4608,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>0.00227316759971987</v>
+        <v>0.007833340717917905</v>
       </c>
       <c r="C380" t="n">
         <v>5</v>
@@ -4619,7 +4619,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>0.002282017157241994</v>
+        <v>0.007863643748220935</v>
       </c>
       <c r="C381" t="n">
         <v>5</v>
@@ -4630,7 +4630,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>0.002282022157241994</v>
+        <v>0.007863648748220936</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
@@ -4641,7 +4641,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>0.002290871714764118</v>
+        <v>0.007893951778523966</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>0.002290876714764118</v>
+        <v>0.007893956778523966</v>
       </c>
       <c r="C384" t="n">
         <v>5</v>
@@ -4663,7 +4663,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>0.002299726272286242</v>
+        <v>0.007924259808826996</v>
       </c>
       <c r="C385" t="n">
         <v>5</v>
@@ -4674,7 +4674,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>0.002299731272286242</v>
+        <v>0.007924264808826997</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -4685,7 +4685,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>0.002308580829808366</v>
+        <v>0.007954567839130027</v>
       </c>
       <c r="C387" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>0.002308585829808366</v>
+        <v>0.007954572839130028</v>
       </c>
       <c r="C388" t="n">
         <v>5</v>
@@ -4707,7 +4707,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>0.00231743538733049</v>
+        <v>0.007984875869433057</v>
       </c>
       <c r="C389" t="n">
         <v>5</v>
@@ -4718,7 +4718,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>0.00231744038733049</v>
+        <v>0.007984880869433058</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>0.002326289944852614</v>
+        <v>0.008015183899736088</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -4740,7 +4740,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>0.002326294944852614</v>
+        <v>0.008015188899736089</v>
       </c>
       <c r="C392" t="n">
         <v>5</v>
@@ -4751,7 +4751,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>0.002335144502374738</v>
+        <v>0.008045491930039119</v>
       </c>
       <c r="C393" t="n">
         <v>5</v>
@@ -4762,7 +4762,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>0.002335149502374738</v>
+        <v>0.00804549693003912</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -4773,7 +4773,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>0.002343999059896862</v>
+        <v>0.008075799960342149</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>0.002344004059896862</v>
+        <v>0.00807580496034215</v>
       </c>
       <c r="C396" t="n">
         <v>5</v>
@@ -4795,7 +4795,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>0.002352775989721423</v>
+        <v>0.008105216725048032</v>
       </c>
       <c r="C397" t="n">
         <v>5</v>
@@ -4806,7 +4806,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>0.002352780989721423</v>
+        <v>0.008105221725048033</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>0.002361552919545984</v>
+        <v>0.008134633489753915</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -4828,7 +4828,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>0.002361557919545984</v>
+        <v>0.008134638489753916</v>
       </c>
       <c r="C400" t="n">
         <v>5</v>
@@ -4839,7 +4839,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>0.002370329849370546</v>
+        <v>0.008164050254459798</v>
       </c>
       <c r="C401" t="n">
         <v>5</v>
@@ -4850,7 +4850,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>0.002370334849370546</v>
+        <v>0.008164055254459799</v>
       </c>
       <c r="C402" t="n">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>0.002379106779195107</v>
+        <v>0.008193467019165681</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -4872,7 +4872,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>0.002379111779195107</v>
+        <v>0.008193472019165681</v>
       </c>
       <c r="C404" t="n">
         <v>5</v>
@@ -4883,7 +4883,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>0.002387883709019668</v>
+        <v>0.008222883783871563</v>
       </c>
       <c r="C405" t="n">
         <v>5</v>
@@ -4894,7 +4894,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>0.002387888709019668</v>
+        <v>0.008222888783871564</v>
       </c>
       <c r="C406" t="n">
         <v>0</v>
@@ -4905,7 +4905,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>0.00239666063884423</v>
+        <v>0.008252300548577446</v>
       </c>
       <c r="C407" t="n">
         <v>0</v>
@@ -4916,7 +4916,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>0.00239666563884423</v>
+        <v>0.008252305548577447</v>
       </c>
       <c r="C408" t="n">
         <v>5</v>
@@ -4927,7 +4927,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>0.002405437568668791</v>
+        <v>0.008281717313283329</v>
       </c>
       <c r="C409" t="n">
         <v>5</v>
@@ -4938,7 +4938,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>0.002405442568668791</v>
+        <v>0.00828172231328333</v>
       </c>
       <c r="C410" t="n">
         <v>0</v>
@@ -4949,7 +4949,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>0.002414214498493353</v>
+        <v>0.008311134077989212</v>
       </c>
       <c r="C411" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>0.002414219498493352</v>
+        <v>0.008311139077989213</v>
       </c>
       <c r="C412" t="n">
         <v>5</v>
@@ -4971,7 +4971,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>0.002422991428317914</v>
+        <v>0.008340550842695095</v>
       </c>
       <c r="C413" t="n">
         <v>5</v>
@@ -4982,7 +4982,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>0.002422996428317914</v>
+        <v>0.008340555842695095</v>
       </c>
       <c r="C414" t="n">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>0.002431768358142475</v>
+        <v>0.008369967607400977</v>
       </c>
       <c r="C415" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>0.002431773358142475</v>
+        <v>0.008369972607400978</v>
       </c>
       <c r="C416" t="n">
         <v>5</v>
@@ -5015,7 +5015,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>0.002440545287967037</v>
+        <v>0.00839938437210686</v>
       </c>
       <c r="C417" t="n">
         <v>5</v>
@@ -5026,7 +5026,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>0.002440550287967037</v>
+        <v>0.008399389372106861</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -5037,7 +5037,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>0.002449322217791598</v>
+        <v>0.008428801136812743</v>
       </c>
       <c r="C419" t="n">
         <v>0</v>
@@ -5048,7 +5048,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>0.002449327217791598</v>
+        <v>0.008428806136812744</v>
       </c>
       <c r="C420" t="n">
         <v>5</v>
@@ -5059,7 +5059,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>0.002458099147616159</v>
+        <v>0.008458217901518626</v>
       </c>
       <c r="C421" t="n">
         <v>5</v>
@@ -5070,7 +5070,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>0.002458104147616159</v>
+        <v>0.008458222901518627</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -5081,7 +5081,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>0.002466876077440721</v>
+        <v>0.008487634666224509</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -5092,7 +5092,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>0.002466881077440721</v>
+        <v>0.00848763966622451</v>
       </c>
       <c r="C424" t="n">
         <v>5</v>
@@ -5103,7 +5103,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>0.002475576729614634</v>
+        <v>0.008516211094795938</v>
       </c>
       <c r="C425" t="n">
         <v>5</v>
@@ -5114,7 +5114,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>0.002475581729614634</v>
+        <v>0.008516216094795939</v>
       </c>
       <c r="C426" t="n">
         <v>0</v>
@@ -5125,7 +5125,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>0.002484277381788547</v>
+        <v>0.008544787523367367</v>
       </c>
       <c r="C427" t="n">
         <v>0</v>
@@ -5136,7 +5136,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>0.002484282381788547</v>
+        <v>0.008544792523367368</v>
       </c>
       <c r="C428" t="n">
         <v>5</v>
@@ -5147,7 +5147,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>0.002492978033962459</v>
+        <v>0.008573363951938796</v>
       </c>
       <c r="C429" t="n">
         <v>5</v>
@@ -5158,7 +5158,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>0.002492983033962459</v>
+        <v>0.008573368951938797</v>
       </c>
       <c r="C430" t="n">
         <v>0</v>
@@ -5169,7 +5169,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>0.002501678686136372</v>
+        <v>0.008601940380510225</v>
       </c>
       <c r="C431" t="n">
         <v>0</v>
@@ -5180,7 +5180,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>0.002501683686136372</v>
+        <v>0.008601945380510225</v>
       </c>
       <c r="C432" t="n">
         <v>5</v>
@@ -5191,7 +5191,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>0.002510379338310285</v>
+        <v>0.008630516809081654</v>
       </c>
       <c r="C433" t="n">
         <v>5</v>
@@ -5202,7 +5202,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>0.002510384338310285</v>
+        <v>0.008630521809081654</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -5213,7 +5213,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>0.002519079990484198</v>
+        <v>0.008659093237653083</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -5224,7 +5224,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>0.002519084990484198</v>
+        <v>0.008659098237653083</v>
       </c>
       <c r="C436" t="n">
         <v>5</v>
@@ -5235,7 +5235,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>0.002527780642658111</v>
+        <v>0.008687669666224512</v>
       </c>
       <c r="C437" t="n">
         <v>5</v>
@@ -5246,7 +5246,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>0.002527785642658111</v>
+        <v>0.008687674666224512</v>
       </c>
       <c r="C438" t="n">
         <v>0</v>
@@ -5257,7 +5257,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>0.002536481294832024</v>
+        <v>0.008716246094795941</v>
       </c>
       <c r="C439" t="n">
         <v>0</v>
@@ -5268,7 +5268,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>0.002536486294832024</v>
+        <v>0.008716251094795941</v>
       </c>
       <c r="C440" t="n">
         <v>5</v>
@@ -5279,7 +5279,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>0.002545181947005937</v>
+        <v>0.00874482252336737</v>
       </c>
       <c r="C441" t="n">
         <v>5</v>
@@ -5290,7 +5290,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>0.002545186947005937</v>
+        <v>0.00874482752336737</v>
       </c>
       <c r="C442" t="n">
         <v>0</v>
@@ -5301,7 +5301,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>0.00255388259917985</v>
+        <v>0.008773398951938799</v>
       </c>
       <c r="C443" t="n">
         <v>0</v>
@@ -5312,7 +5312,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>0.00255388759917985</v>
+        <v>0.008773403951938799</v>
       </c>
       <c r="C444" t="n">
         <v>5</v>
@@ -5323,7 +5323,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>0.002562583251353763</v>
+        <v>0.008801975380510228</v>
       </c>
       <c r="C445" t="n">
         <v>5</v>
@@ -5334,7 +5334,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>0.002562588251353763</v>
+        <v>0.008801980380510228</v>
       </c>
       <c r="C446" t="n">
         <v>0</v>
@@ -5345,7 +5345,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>0.002571283903527676</v>
+        <v>0.008830551809081657</v>
       </c>
       <c r="C447" t="n">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>0.002571288903527676</v>
+        <v>0.008830556809081657</v>
       </c>
       <c r="C448" t="n">
         <v>5</v>
@@ -5367,7 +5367,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>0.002579984555701588</v>
+        <v>0.008859128237653086</v>
       </c>
       <c r="C449" t="n">
         <v>5</v>
@@ -5378,7 +5378,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>0.002579989555701588</v>
+        <v>0.008859133237653086</v>
       </c>
       <c r="C450" t="n">
         <v>0</v>
@@ -5389,7 +5389,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>0.002588685207875501</v>
+        <v>0.008887704666224515</v>
       </c>
       <c r="C451" t="n">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>0.002588690207875501</v>
+        <v>0.008887709666224515</v>
       </c>
       <c r="C452" t="n">
         <v>5</v>
@@ -5411,7 +5411,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>0.002597310897530674</v>
+        <v>0.008915487444002293</v>
       </c>
       <c r="C453" t="n">
         <v>5</v>
@@ -5422,7 +5422,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>0.002597315897530674</v>
+        <v>0.008915492444002294</v>
       </c>
       <c r="C454" t="n">
         <v>0</v>
@@ -5433,7 +5433,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>0.002605936587185846</v>
+        <v>0.008943270221780071</v>
       </c>
       <c r="C455" t="n">
         <v>0</v>
@@ -5444,7 +5444,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>0.002605941587185846</v>
+        <v>0.008943275221780072</v>
       </c>
       <c r="C456" t="n">
         <v>5</v>
@@ -5455,7 +5455,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>0.002614562276841018</v>
+        <v>0.00897105299955785</v>
       </c>
       <c r="C457" t="n">
         <v>5</v>
@@ -5466,7 +5466,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>0.002614567276841018</v>
+        <v>0.008971057999557851</v>
       </c>
       <c r="C458" t="n">
         <v>0</v>
@@ -5477,7 +5477,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>0.002623187966496191</v>
+        <v>0.008998835777335628</v>
       </c>
       <c r="C459" t="n">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>0.002623192966496191</v>
+        <v>0.008998840777335629</v>
       </c>
       <c r="C460" t="n">
         <v>5</v>
@@ -5499,7 +5499,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>0.002631813656151363</v>
+        <v>0.009026618555113407</v>
       </c>
       <c r="C461" t="n">
         <v>5</v>
@@ -5510,7 +5510,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>0.002631818656151363</v>
+        <v>0.009026623555113408</v>
       </c>
       <c r="C462" t="n">
         <v>0</v>
@@ -5521,7 +5521,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>0.002640439345806535</v>
+        <v>0.009054401332891185</v>
       </c>
       <c r="C463" t="n">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>0.002640444345806535</v>
+        <v>0.009054406332891186</v>
       </c>
       <c r="C464" t="n">
         <v>5</v>
@@ -5543,7 +5543,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>0.002649065035461708</v>
+        <v>0.009082184110668964</v>
       </c>
       <c r="C465" t="n">
         <v>5</v>
@@ -5554,7 +5554,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>0.002649070035461708</v>
+        <v>0.009082189110668965</v>
       </c>
       <c r="C466" t="n">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>0.00265769072511688</v>
+        <v>0.009109966888446742</v>
       </c>
       <c r="C467" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>0.00265769572511688</v>
+        <v>0.009109971888446743</v>
       </c>
       <c r="C468" t="n">
         <v>5</v>
@@ -5587,7 +5587,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>0.002666316414772052</v>
+        <v>0.009137749666224521</v>
       </c>
       <c r="C469" t="n">
         <v>5</v>
@@ -5598,7 +5598,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>0.002666321414772052</v>
+        <v>0.009137754666224521</v>
       </c>
       <c r="C470" t="n">
         <v>0</v>
@@ -5609,7 +5609,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>0.002674942104427225</v>
+        <v>0.009165532444002299</v>
       </c>
       <c r="C471" t="n">
         <v>0</v>
@@ -5620,7 +5620,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>0.002674947104427225</v>
+        <v>0.0091655374440023</v>
       </c>
       <c r="C472" t="n">
         <v>5</v>
@@ -5631,7 +5631,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>0.002683567794082397</v>
+        <v>0.009193315221780077</v>
       </c>
       <c r="C473" t="n">
         <v>5</v>
@@ -5642,7 +5642,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>0.002683572794082397</v>
+        <v>0.009193320221780078</v>
       </c>
       <c r="C474" t="n">
         <v>0</v>
@@ -5653,7 +5653,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>0.002692193483737569</v>
+        <v>0.009221097999557856</v>
       </c>
       <c r="C475" t="n">
         <v>0</v>
@@ -5664,7 +5664,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>0.002692198483737569</v>
+        <v>0.009221102999557857</v>
       </c>
       <c r="C476" t="n">
         <v>5</v>
@@ -5675,7 +5675,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>0.002700819173392742</v>
+        <v>0.009248880777335634</v>
       </c>
       <c r="C477" t="n">
         <v>5</v>
@@ -5686,7 +5686,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>0.002700824173392742</v>
+        <v>0.009248885777335635</v>
       </c>
       <c r="C478" t="n">
         <v>0</v>
@@ -5697,7 +5697,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>0.002709444863047914</v>
+        <v>0.009276663555113413</v>
       </c>
       <c r="C479" t="n">
         <v>0</v>
@@ -5708,7 +5708,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>0.002709449863047914</v>
+        <v>0.009276668555113414</v>
       </c>
       <c r="C480" t="n">
         <v>5</v>
@@ -5719,7 +5719,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>0.002717996871594922</v>
+        <v>0.009303695582140441</v>
       </c>
       <c r="C481" t="n">
         <v>5</v>
@@ -5730,7 +5730,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>0.002718001871594922</v>
+        <v>0.009303700582140442</v>
       </c>
       <c r="C482" t="n">
         <v>0</v>
@@ -5741,7 +5741,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>0.002726548880141931</v>
+        <v>0.009330727609167469</v>
       </c>
       <c r="C483" t="n">
         <v>0</v>
@@ -5752,7 +5752,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>0.002726553880141931</v>
+        <v>0.00933073260916747</v>
       </c>
       <c r="C484" t="n">
         <v>5</v>
@@ -5763,7 +5763,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>0.002735100888688939</v>
+        <v>0.009357759636194497</v>
       </c>
       <c r="C485" t="n">
         <v>5</v>
@@ -5774,7 +5774,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>0.002735105888688939</v>
+        <v>0.009357764636194497</v>
       </c>
       <c r="C486" t="n">
         <v>0</v>
@@ -5785,7 +5785,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>0.002743652897235948</v>
+        <v>0.009384791663221525</v>
       </c>
       <c r="C487" t="n">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>0.002743657897235947</v>
+        <v>0.009384796663221525</v>
       </c>
       <c r="C488" t="n">
         <v>5</v>
@@ -5807,7 +5807,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>0.002752204905782956</v>
+        <v>0.009411823690248552</v>
       </c>
       <c r="C489" t="n">
         <v>5</v>
@@ -5818,7 +5818,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>0.002752209905782956</v>
+        <v>0.009411828690248553</v>
       </c>
       <c r="C490" t="n">
         <v>0</v>
@@ -5829,7 +5829,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>0.002760756914329964</v>
+        <v>0.00943885571727558</v>
       </c>
       <c r="C491" t="n">
         <v>0</v>
@@ -5840,7 +5840,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>0.002760761914329964</v>
+        <v>0.009438860717275581</v>
       </c>
       <c r="C492" t="n">
         <v>5</v>
@@ -5851,7 +5851,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>0.002769308922876973</v>
+        <v>0.009465887744302608</v>
       </c>
       <c r="C493" t="n">
         <v>5</v>
@@ -5862,7 +5862,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>0.002769313922876973</v>
+        <v>0.009465892744302609</v>
       </c>
       <c r="C494" t="n">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>0.002777860931423981</v>
+        <v>0.009492919771329636</v>
       </c>
       <c r="C495" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>0.002777865931423981</v>
+        <v>0.009492924771329637</v>
       </c>
       <c r="C496" t="n">
         <v>5</v>
@@ -5895,7 +5895,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>0.002786412939970989</v>
+        <v>0.009519951798356664</v>
       </c>
       <c r="C497" t="n">
         <v>5</v>
@@ -5906,7 +5906,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>0.002786417939970989</v>
+        <v>0.009519956798356665</v>
       </c>
       <c r="C498" t="n">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>0.002794964948517998</v>
+        <v>0.009546983825383692</v>
       </c>
       <c r="C499" t="n">
         <v>0</v>
@@ -5928,7 +5928,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>0.002794969948517998</v>
+        <v>0.009546988825383693</v>
       </c>
       <c r="C500" t="n">
         <v>5</v>
@@ -5939,7 +5939,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>0.002803516957065006</v>
+        <v>0.00957401585241072</v>
       </c>
       <c r="C501" t="n">
         <v>5</v>
@@ -5950,7 +5950,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>0.002803521957065006</v>
+        <v>0.009574020852410721</v>
       </c>
       <c r="C502" t="n">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>0.002812068965612014</v>
+        <v>0.009601047879437748</v>
       </c>
       <c r="C503" t="n">
         <v>0</v>
@@ -5972,7 +5972,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>0.002812073965612014</v>
+        <v>0.009601052879437749</v>
       </c>
       <c r="C504" t="n">
         <v>5</v>
@@ -5983,7 +5983,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>0.002820620974159023</v>
+        <v>0.009628079906464776</v>
       </c>
       <c r="C505" t="n">
         <v>5</v>
@@ -5994,7 +5994,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>0.002820625974159023</v>
+        <v>0.009628084906464777</v>
       </c>
       <c r="C506" t="n">
         <v>0</v>
@@ -6005,7 +6005,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>0.002829172982706031</v>
+        <v>0.009655111933491804</v>
       </c>
       <c r="C507" t="n">
         <v>0</v>
@@ -6016,7 +6016,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>0.002829177982706031</v>
+        <v>0.009655116933491805</v>
       </c>
       <c r="C508" t="n">
         <v>5</v>
@@ -6027,7 +6027,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>0.002837652558977218</v>
+        <v>0.00968143272296549</v>
       </c>
       <c r="C509" t="n">
         <v>5</v>
@@ -6038,7 +6038,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>0.002837657558977218</v>
+        <v>0.009681437722965491</v>
       </c>
       <c r="C510" t="n">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>0.002846132135248404</v>
+        <v>0.009707753512439176</v>
       </c>
       <c r="C511" t="n">
         <v>0</v>
@@ -6060,7 +6060,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>0.002846137135248404</v>
+        <v>0.009707758512439177</v>
       </c>
       <c r="C512" t="n">
         <v>5</v>
@@ -6071,7 +6071,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>0.002854611711519591</v>
+        <v>0.009734074301912862</v>
       </c>
       <c r="C513" t="n">
         <v>5</v>
@@ -6082,7 +6082,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>0.002854616711519591</v>
+        <v>0.009734079301912862</v>
       </c>
       <c r="C514" t="n">
         <v>0</v>
@@ -6093,7 +6093,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>0.002863091287790778</v>
+        <v>0.009760395091386547</v>
       </c>
       <c r="C515" t="n">
         <v>0</v>
@@ -6104,7 +6104,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>0.002863096287790778</v>
+        <v>0.009760400091386548</v>
       </c>
       <c r="C516" t="n">
         <v>5</v>
@@ -6115,7 +6115,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>0.002871570864061964</v>
+        <v>0.009786715880860233</v>
       </c>
       <c r="C517" t="n">
         <v>5</v>
@@ -6126,7 +6126,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>0.002871575864061964</v>
+        <v>0.009786720880860234</v>
       </c>
       <c r="C518" t="n">
         <v>0</v>
@@ -6137,7 +6137,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>0.002880050440333151</v>
+        <v>0.009813036670333919</v>
       </c>
       <c r="C519" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>0.002880055440333151</v>
+        <v>0.00981304167033392</v>
       </c>
       <c r="C520" t="n">
         <v>5</v>
@@ -6159,7 +6159,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>0.002888530016604338</v>
+        <v>0.009839357459807605</v>
       </c>
       <c r="C521" t="n">
         <v>5</v>
@@ -6170,7 +6170,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>0.002888535016604337</v>
+        <v>0.009839362459807606</v>
       </c>
       <c r="C522" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>0.002897009592875524</v>
+        <v>0.009865678249281291</v>
       </c>
       <c r="C523" t="n">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>0.002897014592875524</v>
+        <v>0.009865683249281292</v>
       </c>
       <c r="C524" t="n">
         <v>5</v>
@@ -6203,7 +6203,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>0.002905489169146711</v>
+        <v>0.009891999038754977</v>
       </c>
       <c r="C525" t="n">
         <v>5</v>
@@ -6214,7 +6214,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>0.002905494169146711</v>
+        <v>0.009892004038754978</v>
       </c>
       <c r="C526" t="n">
         <v>0</v>
@@ -6225,7 +6225,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>0.002913968745417897</v>
+        <v>0.009918319828228663</v>
       </c>
       <c r="C527" t="n">
         <v>0</v>
@@ -6236,7 +6236,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>0.002913973745417897</v>
+        <v>0.009918324828228664</v>
       </c>
       <c r="C528" t="n">
         <v>5</v>
@@ -6247,7 +6247,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>0.002922448321689084</v>
+        <v>0.009944640617702349</v>
       </c>
       <c r="C529" t="n">
         <v>5</v>
@@ -6258,7 +6258,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>0.002922453321689084</v>
+        <v>0.00994464561770235</v>
       </c>
       <c r="C530" t="n">
         <v>0</v>
@@ -6269,7 +6269,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>0.002930927897960271</v>
+        <v>0.009970961407176035</v>
       </c>
       <c r="C531" t="n">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>0.002930932897960271</v>
+        <v>0.009970966407176035</v>
       </c>
       <c r="C532" t="n">
         <v>5</v>
@@ -6291,7 +6291,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>0.002939407474231457</v>
+        <v>0.009997282196649721</v>
       </c>
       <c r="C533" t="n">
         <v>5</v>
@@ -6302,7 +6302,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>0.002939412474231457</v>
+        <v>0.009997287196649721</v>
       </c>
       <c r="C534" t="n">
         <v>0</v>
@@ -6313,7 +6313,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>0.002947887050502644</v>
+        <v>0.01002360298612341</v>
       </c>
       <c r="C535" t="n">
         <v>0</v>
@@ -6324,7 +6324,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>0.002947892050502644</v>
+        <v>0.01002360798612341</v>
       </c>
       <c r="C536" t="n">
         <v>5</v>
@@ -6335,7 +6335,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>0.002956295411847182</v>
+        <v>0.01004924901176443</v>
       </c>
       <c r="C537" t="n">
         <v>5</v>
@@ -6346,7 +6346,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>0.002956300411847182</v>
+        <v>0.01004925401176443</v>
       </c>
       <c r="C538" t="n">
         <v>0</v>
@@ -6357,7 +6357,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>0.002964703773191719</v>
+        <v>0.01007489503740546</v>
       </c>
       <c r="C539" t="n">
         <v>0</v>
@@ -6368,7 +6368,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>0.002964708773191719</v>
+        <v>0.01007490003740546</v>
       </c>
       <c r="C540" t="n">
         <v>5</v>
@@ -6379,7 +6379,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>0.002973112134536257</v>
+        <v>0.01010054106304649</v>
       </c>
       <c r="C541" t="n">
         <v>5</v>
@@ -6390,7 +6390,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>0.002973117134536257</v>
+        <v>0.01010054606304649</v>
       </c>
       <c r="C542" t="n">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>0.002981520495880795</v>
+        <v>0.01012618708868751</v>
       </c>
       <c r="C543" t="n">
         <v>0</v>
@@ -6412,7 +6412,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>0.002981525495880795</v>
+        <v>0.01012619208868751</v>
       </c>
       <c r="C544" t="n">
         <v>5</v>
@@ -6423,7 +6423,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>0.002989928857225333</v>
+        <v>0.01015183311432854</v>
       </c>
       <c r="C545" t="n">
         <v>5</v>
@@ -6434,7 +6434,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>0.002989933857225333</v>
+        <v>0.01015183811432854</v>
       </c>
       <c r="C546" t="n">
         <v>0</v>
@@ -6445,7 +6445,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>0.00299833721856987</v>
+        <v>0.01017747913996957</v>
       </c>
       <c r="C547" t="n">
         <v>0</v>
@@ -6456,7 +6456,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>0.00299834221856987</v>
+        <v>0.01017748413996957</v>
       </c>
       <c r="C548" t="n">
         <v>5</v>
@@ -6467,7 +6467,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>0.003006745579914408</v>
+        <v>0.01020312516561059</v>
       </c>
       <c r="C549" t="n">
         <v>5</v>
@@ -6478,7 +6478,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>0.003006750579914408</v>
+        <v>0.01020313016561059</v>
       </c>
       <c r="C550" t="n">
         <v>0</v>
@@ -6489,7 +6489,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>0.003015153941258946</v>
+        <v>0.01022877119125162</v>
       </c>
       <c r="C551" t="n">
         <v>0</v>
@@ -6500,7 +6500,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>0.003015158941258946</v>
+        <v>0.01022877619125162</v>
       </c>
       <c r="C552" t="n">
         <v>5</v>
@@ -6511,7 +6511,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>0.003023562302603484</v>
+        <v>0.01025441721689264</v>
       </c>
       <c r="C553" t="n">
         <v>5</v>
@@ -6522,7 +6522,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>0.003023567302603484</v>
+        <v>0.01025442221689265</v>
       </c>
       <c r="C554" t="n">
         <v>0</v>
@@ -6533,7 +6533,7 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>0.003031970663948021</v>
+        <v>0.01028006324253367</v>
       </c>
       <c r="C555" t="n">
         <v>0</v>
@@ -6544,7 +6544,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>0.003031975663948021</v>
+        <v>0.01028006824253367</v>
       </c>
       <c r="C556" t="n">
         <v>5</v>
@@ -6555,7 +6555,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>0.003040379025292559</v>
+        <v>0.0103057092681747</v>
       </c>
       <c r="C557" t="n">
         <v>5</v>
@@ -6566,7 +6566,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>0.003040384025292559</v>
+        <v>0.0103057142681747</v>
       </c>
       <c r="C558" t="n">
         <v>0</v>
@@ -6577,7 +6577,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>0.003048787386637097</v>
+        <v>0.01033135529381572</v>
       </c>
       <c r="C559" t="n">
         <v>0</v>
@@ -6588,7 +6588,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>0.003048792386637097</v>
+        <v>0.01033136029381572</v>
       </c>
       <c r="C560" t="n">
         <v>5</v>
@@ -6599,7 +6599,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>0.003057195747981634</v>
+        <v>0.01035700131945675</v>
       </c>
       <c r="C561" t="n">
         <v>5</v>
@@ -6610,7 +6610,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>0.003057200747981634</v>
+        <v>0.01035700631945675</v>
       </c>
       <c r="C562" t="n">
         <v>0</v>
